--- a/gd/标准化文档/美术标准文档.xlsx
+++ b/gd/标准化文档/美术标准文档.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="600" yWindow="375" windowWidth="27795" windowHeight="12045"/>
   </bookViews>
   <sheets>
-    <sheet name="美术动作需求模板" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="美术外包规格要求总览" sheetId="5" r:id="rId1"/>
+    <sheet name="美术动作需求模板" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +126,51 @@
   </si>
   <si>
     <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金木水火土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件数&lt;150</t>
+  </si>
+  <si>
+    <t>粒子数&lt;200</t>
+  </si>
+  <si>
+    <t>同屏面数25000</t>
+  </si>
+  <si>
+    <t>颜色贴图256</t>
+  </si>
+  <si>
+    <t>lightmap1024</t>
+  </si>
+  <si>
+    <t>动作规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc800面</t>
+  </si>
+  <si>
+    <t>角色1000面</t>
+  </si>
+  <si>
+    <t>动作时长&lt;4秒（制作规范，不算升格处理）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +209,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +260,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -224,13 +278,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2156946</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>117577</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -546,10 +600,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -621,13 +750,19 @@
     </row>
     <row r="3" spans="1:12" ht="18">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="18">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
@@ -696,30 +831,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/gd/标准化文档/美术标准文档.xlsx
+++ b/gd/标准化文档/美术标准文档.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,13 +164,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>动作时长&lt;4秒（制作规范，不算升格处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Npc800面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角色1000面</t>
-  </si>
-  <si>
-    <t>动作时长&lt;4秒（制作规范，不算升格处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒30帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求上需要写清高度，demo版本暂时都为1.6m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于max制作，Y轴正方向为高度方向，Z轴负方向为面向方向，X轴正方向左，负方向右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -648,22 +662,37 @@
     </row>
     <row r="8" spans="1:3">
       <c r="C8" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="C12" s="8" t="s">
-        <v>42</v>
+    <row r="14" spans="1:3">
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/gd/标准化文档/美术标准文档.xlsx
+++ b/gd/标准化文档/美术标准文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="375" windowWidth="27795" windowHeight="12045" tabRatio="765" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="375" windowWidth="27795" windowHeight="12045" tabRatio="765"/>
   </bookViews>
   <sheets>
     <sheet name="妖怪美术需求模板" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="217">
   <si>
     <t>动作名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,10 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shouji2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chuchang1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,10 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待且进程换弱点规则更新后回归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弱点8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,10 +687,6 @@
   </si>
   <si>
     <t>高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -802,30 +790,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>低级1000面以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级1500面以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级2000面以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10000面以下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>低级颜色贴图256*256，tga格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中高级颜色贴图512*512，tga格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>512*512或256*256，tga格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -842,69 +810,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耳鼠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">xg_ershu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命名规范：前缀为boss或者xg分别代表boss和小怪，后缀用初始名称的拼音。此命名用于怪物id及prefab命名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳鼠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金/木/水/火/土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂接施法特效，命名:e_shifa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标明位置，弱点命名规范：e_ruodian_01，其中e_ruodian为弱点通用前缀，_01部分从01开始，每多一个弱点+1.
-写明弱点对应的隐藏，可破坏部位，及部位破坏时的特效。
-破坏mesh命名规范：mesh_ruodian_01，前缀统一为mesh_ruodian后缀跟对应弱点统一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prefab id</t>
   </si>
   <si>
-    <t>物件1*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物件1*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物件2*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背景设定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,10 +825,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>副本场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -937,59 +841,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沼泽地表为主，中景一些枯木，动物骸骨半浸泡在沼泽中，一些蒹葭丛点缀</t>
-  </si>
-  <si>
-    <t>沼泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地形A（基础地表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泥土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>云梦泽是一个巨大的沼泽湖泊群，泽布千里，烟波浩渺，道路错综复杂，变幻莫测，舟楫难行，故人迹罕至。泽中常年雾气缭绕，灵气充沛，自古为仙灵精怪栖身之所，传说在云梦泽深处，曾是上古神龙应龙养伤之地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>changjing_yunmengze_01
-命名规范:changjing_yunmengze_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖畔土坡，地表接缝用杂草堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒹葭丛*2
-岩石
-动物骸骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">……
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注意这里的物件都是会形成阻挡的</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1012,6 +864,45 @@
   </si>
   <si>
     <t>受控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型类别</t>
+  </si>
+  <si>
+    <t>模型类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于高级怪物，如人形怪，高阶兽形怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于boss及部分最高级的人形怪，高阶兽形怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于低级别怪物，材料怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊需求根据boss复用的所有场景情况确定面数，保证同屏不超过25000,。如1个boss只用于1个场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色原画/参考图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画/参考图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金/木/水/火/土</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1034,26 +925,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模型类别</t>
-  </si>
-  <si>
-    <t>模型类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要用于高级怪物，如人形怪，高阶兽形怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要用于boss及部分最高级的人形怪，高阶兽形怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要用于低级别怪物，材料怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊需求根据boss复用的所有场景情况确定面数，保证同屏不超过25000,。如1个boss只用于1个场景</t>
+    <t>挂接受击特效，命名:e_shouji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于标志集火位置及血条位置，命名:e_jihuo 父级是根节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shouji2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xg_ershu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命名规范：前缀为boss或者xg分别代表boss和小怪，后缀用初始名称的拼音。此命名用于怪物id及prefab命名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用规则及描述：单击，1.5秒，需要先往前跳50cm，然后1.0秒时击中对手；
+                          3连击，命中时间：1秒，1.15秒，1.45秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用规则及描述：2秒，先往前跳50cm，施法，1.5秒时放出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用规则及描述：用于战斗待机及村落待机，2秒循环，动作幅度不能太大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用规则及描述：跑步速度10m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认1.6m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标明位置，弱点命名规范：e_ruodian_01，其中e_ruodian为弱点通用前缀，_01部分从01开始，每多一个弱点+1.
+写明弱点对应的隐藏，可破坏部位，及部位破坏时的特效。
+破坏mesh命名规范：mesh_ruodian_01，前缀统一为mesh_ruodian后缀跟对应弱点统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待且进程换弱点规则更新后回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽地表为主，中景一些枯木，动物骸骨半浸泡在沼泽中，一些蒹葭丛点缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changjing_yunmengze_01
+命名规范:changjing_yunmengze_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高级2500面以下，其他酌情下调即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1071,9 +1029,9 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">决定模型精度
-高级：主要用于boss及部分最高级的人形怪，最高阶兽形怪，2000面
-中级：主要用于高级怪物，如人形怪，高阶兽形怪，1500面
-低级：主要用于低级别怪物，材料怪，1000面
+高级：主要用于boss及部分最高级的人形怪，最高阶兽形怪，
+中级：主要用于高级怪物，如人形怪，高阶兽形怪
+低级：主要用于低级别怪物，材料怪
 特殊需求根据boss复用的所有场景情况确定面数，保证同屏不超过25000,。如1个boss只用于1个场景
 </t>
     </r>
@@ -1091,20 +1049,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高级/中级/低级
-决定模型精度
-高级：主要用于boss及部分最高级的人形怪，最高阶兽形怪，2000面
-中级：主要用于高级怪物，如人形怪，高阶兽形怪，1500面
-低级：主要用于低级别怪物，材料怪，1000面
-特殊需求根据boss复用的所有场景情况确定面数，保证同屏不超过25000,。如1个boss只用于1个场景
-动作中如果需要张嘴在这里描述一下</t>
-  </si>
-  <si>
-    <t>角色原画/参考图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原画/参考图</t>
+    <t>颜色贴图512*512，tga格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1239,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1327,9 +1272,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1392,6 +1334,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,13 +1353,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2310,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -2335,227 +2283,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75">
-      <c r="A1" s="25" t="s">
-        <v>167</v>
+      <c r="A1" s="24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+        <v>135</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="22"/>
+      <c r="D4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="22"/>
+      <c r="D5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="22"/>
+      <c r="D6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="22"/>
+      <c r="D7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="22"/>
+      <c r="D8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="22"/>
+      <c r="C9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="22"/>
+      <c r="E13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="22"/>
+      <c r="E14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="22"/>
+      <c r="E15" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="22"/>
+      <c r="E16" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="22"/>
+      <c r="E17" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="22"/>
+      <c r="D18" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="22"/>
+      <c r="E19" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="22"/>
+      <c r="D20" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="22"/>
+      <c r="E21" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="22"/>
+      <c r="C22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="23"/>
-      <c r="D4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="23"/>
-      <c r="D5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="23"/>
-      <c r="D6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="23"/>
-      <c r="D7" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="23"/>
-      <c r="D8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="23"/>
-      <c r="C9" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="23"/>
-      <c r="D10" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="23"/>
-      <c r="D11" s="23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="23"/>
-      <c r="D12" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="23"/>
-      <c r="E13" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="23"/>
-      <c r="E14" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="23"/>
-      <c r="E15" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="23"/>
-      <c r="E16" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17" s="23"/>
-      <c r="D17" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" s="23"/>
-      <c r="E18" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="23"/>
-      <c r="E19" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20" s="23"/>
-      <c r="D20" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="23"/>
-      <c r="E21" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22" s="23"/>
-      <c r="C22" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="D23" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="D24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>179</v>
+        <v>142</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="B25" s="22"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="C27" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="C28" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="33.75">
-      <c r="A30" s="25" t="s">
-        <v>140</v>
+      <c r="A30" s="24" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="22.5">
-      <c r="A32" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:19" ht="22.5">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+        <v>150</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:19" ht="22.5">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="H34" s="38"/>
+        <v>149</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="22.5">
-      <c r="A35" s="24"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:19" ht="18">
       <c r="A36" s="1" t="s">
@@ -2568,27 +2516,27 @@
         <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" s="34"/>
+        <v>192</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="36"/>
       <c r="L36" s="6" t="s">
         <v>16</v>
       </c>
@@ -2615,435 +2563,435 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="18" customHeight="1">
-      <c r="A37" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="G37" s="31" t="s">
+      <c r="A37" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="H37" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="L37" s="33" t="s">
+      <c r="G37" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="I37" s="38"/>
+      <c r="J37" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L37" s="35" t="s">
         <v>15</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N37" s="18" t="s">
-        <v>50</v>
+      <c r="N37" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="34.5">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L38" s="33"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="L38" s="35"/>
       <c r="M38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N38" s="19" t="s">
-        <v>52</v>
+      <c r="N38" s="18" t="s">
+        <v>202</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="34.5">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="L39" s="33"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="L39" s="35"/>
       <c r="M39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N39" s="18" t="s">
-        <v>53</v>
+      <c r="N39" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="33"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="35"/>
       <c r="M40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="18" t="s">
+      <c r="N40" s="17" t="s">
         <v>59</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="33"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="35"/>
       <c r="M41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="18" t="s">
+      <c r="N41" s="17" t="s">
         <v>64</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="33"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="35"/>
       <c r="M42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N42" s="18" t="s">
+      <c r="N42" s="17" t="s">
         <v>65</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="33"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="35"/>
       <c r="M43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="18" t="s">
-        <v>63</v>
+      <c r="N43" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="33"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="35"/>
       <c r="M44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="18" t="s">
+      <c r="N44" s="17" t="s">
         <v>60</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="33"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="35"/>
       <c r="M45" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="N45" s="17" t="s">
         <v>66</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="33"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="35"/>
       <c r="M46" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="N46" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="N46" s="17" t="s">
         <v>60</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="33"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="35"/>
       <c r="M47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N47" s="18" t="s">
+      <c r="N47" s="17" t="s">
         <v>54</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="34.5">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="33"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="35"/>
       <c r="M48" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N48" s="19" t="s">
+      <c r="N48" s="18" t="s">
         <v>62</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="36" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="13" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="12" t="s">
         <v>56</v>
       </c>
       <c r="M49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N49" s="19" t="s">
+      <c r="N49" s="18" t="s">
         <v>55</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="36" customHeight="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="15"/>
-      <c r="N50" s="19"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="14"/>
+      <c r="N50" s="18"/>
     </row>
     <row r="51" spans="1:19" ht="36" customHeight="1">
-      <c r="A51" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="15"/>
-      <c r="N51" s="19"/>
+      <c r="A51" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="14"/>
+      <c r="N51" s="18"/>
     </row>
     <row r="52" spans="1:19" ht="18">
       <c r="B52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="13"/>
-      <c r="N52" s="19"/>
+        <v>137</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="12"/>
+      <c r="N52" s="18"/>
     </row>
     <row r="53" spans="1:19" ht="18">
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="15"/>
-      <c r="N53" s="19"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="14"/>
+      <c r="N53" s="18"/>
     </row>
     <row r="54" spans="1:19" ht="18">
       <c r="A54" s="1" t="s">
@@ -3056,27 +3004,27 @@
         <v>70</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J54" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="K54" s="34"/>
+      <c r="J54" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="K54" s="36"/>
       <c r="L54" s="6" t="s">
         <v>16</v>
       </c>
@@ -3102,1009 +3050,1000 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="51.75">
-      <c r="A55" s="31" t="s">
+    <row r="55" spans="1:19" ht="51.75" customHeight="1">
+      <c r="A55" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="31" t="s">
+      <c r="D55" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F55" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="H55" s="31"/>
-      <c r="I55" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="L55" s="21" t="s">
+      <c r="F55" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H55" s="33"/>
+      <c r="I55" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L55" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N55" s="18" t="s">
+      <c r="N55" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="O55" s="30" t="s">
-        <v>213</v>
+      <c r="O55" s="29" t="s">
+        <v>184</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="18" customHeight="1">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L56" s="33" t="s">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L56" s="35" t="s">
         <v>75</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N56" s="18" t="s">
+      <c r="N56" s="17" t="s">
         <v>50</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="34.5">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="L57" s="33"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L57" s="35"/>
       <c r="M57" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N57" s="19" t="s">
+      <c r="N57" s="18" t="s">
         <v>52</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>82</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="36"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="34"/>
       <c r="J58" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K58" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="L58" s="33"/>
+        <v>121</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="L58" s="35"/>
       <c r="M58" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="18" t="s">
+      <c r="N58" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>83</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="36"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="34"/>
       <c r="J59" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K59" s="31"/>
-      <c r="L59" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="K59" s="33"/>
+      <c r="L59" s="35"/>
       <c r="M59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N59" s="18" t="s">
+      <c r="N59" s="17" t="s">
         <v>59</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>84</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="36"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="34"/>
       <c r="J60" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K60" s="31"/>
-      <c r="L60" s="33"/>
+        <v>123</v>
+      </c>
+      <c r="K60" s="33"/>
+      <c r="L60" s="35"/>
       <c r="M60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N60" s="18" t="s">
+      <c r="N60" s="17" t="s">
         <v>64</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="36"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="34"/>
       <c r="J61" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K61" s="31"/>
-      <c r="L61" s="33"/>
+        <v>124</v>
+      </c>
+      <c r="K61" s="33"/>
+      <c r="L61" s="35"/>
       <c r="M61" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N61" s="18" t="s">
+      <c r="N61" s="17" t="s">
         <v>65</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>86</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="36"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="34"/>
       <c r="J62" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K62" s="31"/>
-      <c r="L62" s="33"/>
+        <v>125</v>
+      </c>
+      <c r="K62" s="33"/>
+      <c r="L62" s="35"/>
       <c r="M62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N62" s="18" t="s">
+      <c r="N62" s="17" t="s">
         <v>63</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="36"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="34"/>
       <c r="J63" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K63" s="31"/>
-      <c r="L63" s="33"/>
+        <v>126</v>
+      </c>
+      <c r="K63" s="33"/>
+      <c r="L63" s="35"/>
       <c r="M63" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N63" s="18" t="s">
+      <c r="N63" s="17" t="s">
         <v>60</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>88</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="36"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K64" s="31"/>
-      <c r="L64" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="K64" s="33"/>
+      <c r="L64" s="35"/>
       <c r="M64" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N64" s="18" t="s">
+      <c r="N64" s="17" t="s">
         <v>66</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>89</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="36"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="34"/>
       <c r="J65" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K65" s="31"/>
-      <c r="L65" s="33"/>
+        <v>133</v>
+      </c>
+      <c r="K65" s="33"/>
+      <c r="L65" s="35"/>
       <c r="M65" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="N65" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="N65" s="17" t="s">
         <v>60</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>90</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="36"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="34"/>
       <c r="J66" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K66" s="31"/>
-      <c r="L66" s="33"/>
+        <v>167</v>
+      </c>
+      <c r="K66" s="33"/>
+      <c r="L66" s="35"/>
       <c r="M66" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N66" s="18" t="s">
+      <c r="N66" s="17" t="s">
         <v>54</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>91</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="34.5">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="36"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="34"/>
       <c r="J67" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K67" s="31"/>
-      <c r="L67" s="33"/>
+        <v>168</v>
+      </c>
+      <c r="K67" s="33"/>
+      <c r="L67" s="35"/>
       <c r="M67" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N67" s="19" t="s">
+      <c r="N67" s="18" t="s">
         <v>62</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="36" customHeight="1">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="36"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="34"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="13" t="s">
+      <c r="K68" s="33"/>
+      <c r="L68" s="12" t="s">
         <v>76</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N68" s="19" t="s">
+      <c r="N68" s="18" t="s">
         <v>55</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>92</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="18" customHeight="1">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="36"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="34"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="33" t="s">
+      <c r="K69" s="33"/>
+      <c r="L69" s="35" t="s">
         <v>77</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N69" s="18" t="s">
+      <c r="N69" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="O69" s="18" t="s">
+      <c r="O69" s="17" t="s">
         <v>29</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="18" customHeight="1">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="36"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="34"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="35"/>
       <c r="M70" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N70" s="18" t="s">
+      <c r="N70" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="O70" s="18" t="s">
+      <c r="O70" s="17" t="s">
         <v>29</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="18" customHeight="1">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="36"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="34"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="35"/>
       <c r="M71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N71" s="18" t="s">
+      <c r="N71" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="O71" s="18" t="s">
+      <c r="O71" s="17" t="s">
         <v>29</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="18" customHeight="1">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="J72" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="K72" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="L72" s="21" t="s">
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L72" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M72" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="N72" s="18" t="s">
+      <c r="N72" s="17" t="s">
         <v>71</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="18" customHeight="1">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K73" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L73" s="33" t="s">
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L73" s="35" t="s">
         <v>78</v>
       </c>
       <c r="M73" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N73" s="18" t="s">
+      <c r="N73" s="17" t="s">
         <v>50</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>97</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="34.5">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="K74" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="L74" s="33"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L74" s="35"/>
       <c r="M74" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N74" s="19" t="s">
+      <c r="N74" s="18" t="s">
         <v>52</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>98</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="36"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="34"/>
       <c r="J75" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K75" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="L75" s="33"/>
+        <v>121</v>
+      </c>
+      <c r="K75" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="L75" s="35"/>
       <c r="M75" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N75" s="18" t="s">
+      <c r="N75" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>99</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="36"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="34"/>
       <c r="J76" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K76" s="35"/>
-      <c r="L76" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="K76" s="37"/>
+      <c r="L76" s="35"/>
       <c r="M76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N76" s="18" t="s">
+      <c r="N76" s="17" t="s">
         <v>59</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>100</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="36"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="34"/>
       <c r="J77" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K77" s="35"/>
-      <c r="L77" s="33"/>
+        <v>123</v>
+      </c>
+      <c r="K77" s="37"/>
+      <c r="L77" s="35"/>
       <c r="M77" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N77" s="18" t="s">
+      <c r="N77" s="17" t="s">
         <v>64</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>101</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="36"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="34"/>
       <c r="J78" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K78" s="35"/>
-      <c r="L78" s="33"/>
+        <v>124</v>
+      </c>
+      <c r="K78" s="37"/>
+      <c r="L78" s="35"/>
       <c r="M78" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N78" s="18" t="s">
+      <c r="N78" s="17" t="s">
         <v>65</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>102</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="36"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="34"/>
       <c r="J79" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K79" s="35"/>
-      <c r="L79" s="33"/>
+        <v>125</v>
+      </c>
+      <c r="K79" s="37"/>
+      <c r="L79" s="35"/>
       <c r="M79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N79" s="18" t="s">
+      <c r="N79" s="17" t="s">
         <v>63</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>103</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="36"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="34"/>
       <c r="J80" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K80" s="35"/>
-      <c r="L80" s="33"/>
+        <v>126</v>
+      </c>
+      <c r="K80" s="37"/>
+      <c r="L80" s="35"/>
       <c r="M80" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N80" s="18" t="s">
+      <c r="N80" s="17" t="s">
         <v>60</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="36"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="34"/>
       <c r="J81" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K81" s="35"/>
-      <c r="L81" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="K81" s="37"/>
+      <c r="L81" s="35"/>
       <c r="M81" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N81" s="18" t="s">
+      <c r="N81" s="17" t="s">
         <v>66</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>105</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="36"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="34"/>
       <c r="J82" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K82" s="35"/>
-      <c r="L82" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="K82" s="37"/>
+      <c r="L82" s="35"/>
       <c r="M82" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="N82" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="N82" s="17" t="s">
         <v>60</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>106</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="36"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="34"/>
       <c r="J83" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K83" s="20"/>
-      <c r="L83" s="33"/>
+        <v>167</v>
+      </c>
+      <c r="K83" s="19"/>
+      <c r="L83" s="35"/>
       <c r="M83" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N83" s="18" t="s">
+      <c r="N83" s="17" t="s">
         <v>54</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="34.5">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="36"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="34"/>
       <c r="J84" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K84" s="20"/>
-      <c r="L84" s="33"/>
+        <v>168</v>
+      </c>
+      <c r="K84" s="19"/>
+      <c r="L84" s="35"/>
       <c r="M84" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N84" s="19" t="s">
+      <c r="N84" s="18" t="s">
         <v>96</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="36" customHeight="1">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="13" t="s">
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="12" t="s">
         <v>79</v>
       </c>
       <c r="M85" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N85" s="19" t="s">
+      <c r="N85" s="18" t="s">
         <v>55</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>93</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="18" customHeight="1">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="33" t="s">
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="35" t="s">
         <v>80</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N86" s="18" t="s">
+      <c r="N86" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="O86" s="18" t="s">
+      <c r="O86" s="17" t="s">
         <v>29</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="18" customHeight="1">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="33"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="35"/>
       <c r="M87" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N87" s="18" t="s">
+      <c r="N87" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="O87" s="18" t="s">
+      <c r="O87" s="17" t="s">
         <v>29</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="18" customHeight="1">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="33"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="35"/>
       <c r="M88" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N88" s="18" t="s">
+      <c r="N88" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="O88" s="18" t="s">
+      <c r="O88" s="17" t="s">
         <v>29</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H55:H71"/>
-    <mergeCell ref="H72:H88"/>
-    <mergeCell ref="G55:G71"/>
-    <mergeCell ref="G72:G88"/>
-    <mergeCell ref="K58:K71"/>
-    <mergeCell ref="I55:I71"/>
-    <mergeCell ref="I72:I88"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="L37:L48"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L73:L84"/>
-    <mergeCell ref="L69:L71"/>
-    <mergeCell ref="L56:L67"/>
-    <mergeCell ref="K75:K82"/>
+    <mergeCell ref="A55:A88"/>
+    <mergeCell ref="B55:B88"/>
+    <mergeCell ref="C55:C88"/>
+    <mergeCell ref="E55:E88"/>
+    <mergeCell ref="F55:F88"/>
+    <mergeCell ref="D55:D88"/>
     <mergeCell ref="A37:A49"/>
     <mergeCell ref="I37:I49"/>
     <mergeCell ref="F37:F49"/>
@@ -4114,12 +4053,21 @@
     <mergeCell ref="D37:D49"/>
     <mergeCell ref="H37:H49"/>
     <mergeCell ref="G37:G49"/>
-    <mergeCell ref="A55:A88"/>
-    <mergeCell ref="B55:B88"/>
-    <mergeCell ref="C55:C88"/>
-    <mergeCell ref="E55:E88"/>
-    <mergeCell ref="F55:F88"/>
-    <mergeCell ref="D55:D88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="L37:L48"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L73:L84"/>
+    <mergeCell ref="L69:L71"/>
+    <mergeCell ref="L56:L67"/>
+    <mergeCell ref="K75:K82"/>
+    <mergeCell ref="H55:H71"/>
+    <mergeCell ref="H72:H88"/>
+    <mergeCell ref="G55:G71"/>
+    <mergeCell ref="G72:G88"/>
+    <mergeCell ref="K58:K71"/>
+    <mergeCell ref="I55:I71"/>
+    <mergeCell ref="I72:I88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4130,155 +4078,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="9" style="22"/>
-    <col min="3" max="3" width="50.375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="12"/>
-    <col min="8" max="8" width="14.625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9" style="22"/>
-    <col min="10" max="10" width="14.25" style="22" customWidth="1"/>
-    <col min="11" max="11" width="9" style="22"/>
-    <col min="12" max="12" width="25.625" style="22" customWidth="1"/>
-    <col min="13" max="13" width="32.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="22" customWidth="1"/>
-    <col min="15" max="15" width="9" style="7"/>
-    <col min="16" max="16" width="12.875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="9" style="7"/>
-    <col min="18" max="18" width="13.375" style="7" customWidth="1"/>
-    <col min="19" max="19" width="23.625" style="7" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="7"/>
+    <col min="2" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="50.375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="32.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9" style="7"/>
+    <col min="10" max="10" width="12.875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="13.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="23.625" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:9" s="21" customFormat="1">
+      <c r="A1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37" t="s">
+      <c r="C1" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="I1" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="15">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" ht="242.25" customHeight="1">
+        <v>180</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" ht="242.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="H3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="N3" s="28"/>
+      <c r="H3" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
